--- a/biology/Botanique/Peucedanum/Peucedanum.xlsx
+++ b/biology/Botanique/Peucedanum/Peucedanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peucédan
-Peucedanum, le Peucédan[1], est un genre végétal de la famille des Apiaceae (Ombellifères). Ce nom latin est dérivé du grec πευκέδανον, peukédanon, lui même formé à partir de πεύκη, peukê (« pin ») pour désigner des plantes ayant une odeur résineuse [2].
+Peucedanum, le Peucédan, est un genre végétal de la famille des Apiaceae (Ombellifères). Ce nom latin est dérivé du grec πευκέδανον, peukédanon, lui même formé à partir de πεύκη, peukê (« pin ») pour désigner des plantes ayant une odeur résineuse .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté par plus de 70 espèces dans toute l'Eurasie et en Afrique du Nord (paléarctique)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté par plus de 70 espèces dans toute l'Eurasie et en Afrique du Nord (paléarctique).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 novembre 2023) :
 Peucedanum adae Woronow
 Peucedanum akaliniae Akpulat, Gürdal &amp; Tuncay
 Peucedanum alpinum (Sieber ex Schult.) B.L.Burtt &amp; P.H.Davis
@@ -648,9 +664,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (12 novembre 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (12 novembre 2023) :
 Alvardia Fenzl in Flora 27: 312 (1844)
 Analyrium E.Mey. ex C.Presl in Abh. Königl. Böhm. Ges. Wiss., ser. 5, 3: 505 (1845)
 Angelium (Rchb.) Opiz in F.Berchtold, Oekon.-Techn. Fl. Böhm. 2(2): 26 (1839)
